--- a/data/pca/factorExposure/factorExposure_2017-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02391603368150191</v>
+        <v>-0.008250027302581415</v>
       </c>
       <c r="C2">
-        <v>-0.0003124505870513114</v>
+        <v>0.04359357636170715</v>
       </c>
       <c r="D2">
-        <v>-0.02012133519115705</v>
+        <v>0.02992957672066339</v>
       </c>
       <c r="E2">
-        <v>-0.01419604269359451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03408242673120716</v>
+      </c>
+      <c r="F2">
+        <v>-0.01100397760002132</v>
+      </c>
+      <c r="G2">
+        <v>-0.0735078499295273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01687673999490465</v>
+        <v>-0.0524248865084193</v>
       </c>
       <c r="C3">
-        <v>0.05405774511273365</v>
+        <v>0.07314956020394855</v>
       </c>
       <c r="D3">
-        <v>-0.02292200427002316</v>
+        <v>0.01563612990358121</v>
       </c>
       <c r="E3">
-        <v>-0.01617124973801054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1013866053925689</v>
+      </c>
+      <c r="F3">
+        <v>-0.03072047532125503</v>
+      </c>
+      <c r="G3">
+        <v>-0.1497188162416321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02354503813715718</v>
+        <v>-0.05947816684341534</v>
       </c>
       <c r="C4">
-        <v>0.0178431364675222</v>
+        <v>0.06422027820507649</v>
       </c>
       <c r="D4">
-        <v>-0.06216220595052185</v>
+        <v>0.02357648065764448</v>
       </c>
       <c r="E4">
-        <v>0.01422460933192741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02268345727694438</v>
+      </c>
+      <c r="F4">
+        <v>-0.007090536043836679</v>
+      </c>
+      <c r="G4">
+        <v>-0.07500616537950254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01545161356058406</v>
+        <v>-0.04007258430371808</v>
       </c>
       <c r="C6">
-        <v>0.01055215701064637</v>
+        <v>0.0528738043035317</v>
       </c>
       <c r="D6">
-        <v>-0.08710792500260754</v>
+        <v>0.01611178184993542</v>
       </c>
       <c r="E6">
-        <v>0.009491926930766427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02307388684314716</v>
+      </c>
+      <c r="F6">
+        <v>-0.01132530110355361</v>
+      </c>
+      <c r="G6">
+        <v>-0.05289052050313982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01132419759461682</v>
+        <v>-0.02043491642621014</v>
       </c>
       <c r="C7">
-        <v>0.008975468790817393</v>
+        <v>0.04021593191744147</v>
       </c>
       <c r="D7">
-        <v>-0.0376448593357129</v>
+        <v>0.01295363306491846</v>
       </c>
       <c r="E7">
-        <v>0.05916320939794479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.006601434721466131</v>
+      </c>
+      <c r="F7">
+        <v>0.004788468259456881</v>
+      </c>
+      <c r="G7">
+        <v>-0.1144066664191377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005326682975529695</v>
+        <v>-0.001843702907536172</v>
       </c>
       <c r="C8">
-        <v>0.0009905141465127989</v>
+        <v>0.02085931740128815</v>
       </c>
       <c r="D8">
-        <v>-0.001950725471681147</v>
+        <v>0.003664441523376756</v>
       </c>
       <c r="E8">
-        <v>0.007104768859387356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02248201242537033</v>
+      </c>
+      <c r="F8">
+        <v>-0.0165120155383873</v>
+      </c>
+      <c r="G8">
+        <v>-0.04515703552476105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01644518049047007</v>
+        <v>-0.03497738796122894</v>
       </c>
       <c r="C9">
-        <v>0.01966526847941718</v>
+        <v>0.04515482776399212</v>
       </c>
       <c r="D9">
-        <v>-0.04718178159613082</v>
+        <v>0.01605399164159941</v>
       </c>
       <c r="E9">
-        <v>0.003668925903438452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01528523918111596</v>
+      </c>
+      <c r="F9">
+        <v>-0.01239970903848766</v>
+      </c>
+      <c r="G9">
+        <v>-0.07788742127837464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02059248920790858</v>
+        <v>-0.09386111655150403</v>
       </c>
       <c r="C10">
-        <v>0.1629941367149034</v>
+        <v>-0.1867773651243651</v>
       </c>
       <c r="D10">
-        <v>0.1103495825128584</v>
+        <v>-0.01676643457958526</v>
       </c>
       <c r="E10">
-        <v>-0.00870065480177511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01214520635194819</v>
+      </c>
+      <c r="F10">
+        <v>0.02082635474831384</v>
+      </c>
+      <c r="G10">
+        <v>-0.05108591516346919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0009242069981787427</v>
+        <v>-0.03498081531100997</v>
       </c>
       <c r="C11">
-        <v>0.007061255929599938</v>
+        <v>0.0532651099607818</v>
       </c>
       <c r="D11">
-        <v>-0.03939871399380251</v>
+        <v>0.002338728418567822</v>
       </c>
       <c r="E11">
-        <v>-0.005328331095755074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008796862370212615</v>
+      </c>
+      <c r="F11">
+        <v>-0.02105021758403043</v>
+      </c>
+      <c r="G11">
+        <v>-0.06094035982254375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006648682864867752</v>
+        <v>-0.03686811842907099</v>
       </c>
       <c r="C12">
-        <v>0.01354270091469216</v>
+        <v>0.04831202955564524</v>
       </c>
       <c r="D12">
-        <v>-0.04490009695474821</v>
+        <v>0.006091581000785937</v>
       </c>
       <c r="E12">
-        <v>0.005830284490946587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0007712000657384133</v>
+      </c>
+      <c r="F12">
+        <v>-0.001149539000798032</v>
+      </c>
+      <c r="G12">
+        <v>-0.05688044875909246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0229236723723995</v>
+        <v>-0.0168399108128124</v>
       </c>
       <c r="C13">
-        <v>0.01497231932721803</v>
+        <v>0.0362155274481947</v>
       </c>
       <c r="D13">
-        <v>-0.00788512684783153</v>
+        <v>0.02583708672321303</v>
       </c>
       <c r="E13">
-        <v>-0.01131693118774453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02773243893364712</v>
+      </c>
+      <c r="F13">
+        <v>-0.006964700215790883</v>
+      </c>
+      <c r="G13">
+        <v>-0.09034628683539288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008151233577461899</v>
+        <v>-0.008751805036673662</v>
       </c>
       <c r="C14">
-        <v>0.01387217324343881</v>
+        <v>0.0259057875290418</v>
       </c>
       <c r="D14">
-        <v>-0.01183088885583948</v>
+        <v>0.008978459151962626</v>
       </c>
       <c r="E14">
-        <v>0.008352197118171367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002509050798241708</v>
+      </c>
+      <c r="F14">
+        <v>0.004902194131836201</v>
+      </c>
+      <c r="G14">
+        <v>-0.07823870253753079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001794293738598059</v>
+        <v>-0.03427441897798759</v>
       </c>
       <c r="C16">
-        <v>0.0126390187265076</v>
+        <v>0.04747769530479479</v>
       </c>
       <c r="D16">
-        <v>-0.04544825890042658</v>
+        <v>0.001854796565927401</v>
       </c>
       <c r="E16">
-        <v>0.005034325126405906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006838885062967056</v>
+      </c>
+      <c r="F16">
+        <v>-0.002483033836021775</v>
+      </c>
+      <c r="G16">
+        <v>-0.06416934694348179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01493828268127568</v>
+        <v>-0.0244663388835721</v>
       </c>
       <c r="C19">
-        <v>0.02472726043967038</v>
+        <v>0.04905967037851994</v>
       </c>
       <c r="D19">
-        <v>-0.01623713818074786</v>
+        <v>0.01747907739750379</v>
       </c>
       <c r="E19">
-        <v>0.004587908086352755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06195070128341834</v>
+      </c>
+      <c r="F19">
+        <v>-0.01952886040828183</v>
+      </c>
+      <c r="G19">
+        <v>-0.1042816150153453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01096858578360875</v>
+        <v>-0.01561782843663179</v>
       </c>
       <c r="C20">
-        <v>0.008220510828743246</v>
+        <v>0.03416493830179156</v>
       </c>
       <c r="D20">
-        <v>-0.0102813770741337</v>
+        <v>0.01332386239552048</v>
       </c>
       <c r="E20">
-        <v>-0.01020451451887479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02589871353284507</v>
+      </c>
+      <c r="F20">
+        <v>0.005237674864625374</v>
+      </c>
+      <c r="G20">
+        <v>-0.07603385214269814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01515905334097137</v>
+        <v>-0.01485108907543146</v>
       </c>
       <c r="C21">
-        <v>0.02121865841735505</v>
+        <v>0.03706830178493388</v>
       </c>
       <c r="D21">
-        <v>-0.01994255593230785</v>
+        <v>0.01755559082121816</v>
       </c>
       <c r="E21">
-        <v>0.0104201272008526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03786751819347105</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001485877629923914</v>
+      </c>
+      <c r="G21">
+        <v>-0.109807135431509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004696125916137866</v>
+        <v>-0.02812993386552299</v>
       </c>
       <c r="C24">
-        <v>0.001225404333192504</v>
+        <v>0.0502621172908511</v>
       </c>
       <c r="D24">
-        <v>-0.04168632868673259</v>
+        <v>0.007231957737146473</v>
       </c>
       <c r="E24">
-        <v>0.0005170950146548624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004613777757538162</v>
+      </c>
+      <c r="F24">
+        <v>-0.01412185748743935</v>
+      </c>
+      <c r="G24">
+        <v>-0.06550084507361763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01236431778298424</v>
+        <v>-0.04287030557852357</v>
       </c>
       <c r="C25">
-        <v>0.01749094953057166</v>
+        <v>0.05741515806574348</v>
       </c>
       <c r="D25">
-        <v>-0.04383142511545483</v>
+        <v>0.01126363411692147</v>
       </c>
       <c r="E25">
-        <v>0.0006853144929545881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002432353299981698</v>
+      </c>
+      <c r="F25">
+        <v>-0.009465066934589253</v>
+      </c>
+      <c r="G25">
+        <v>-0.06988438813152796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02335409064902924</v>
+        <v>-0.0151681633612444</v>
       </c>
       <c r="C26">
-        <v>0.01078243427973723</v>
+        <v>0.008217973703410071</v>
       </c>
       <c r="D26">
-        <v>0.006015172873361122</v>
+        <v>0.02341097673841599</v>
       </c>
       <c r="E26">
-        <v>0.008206835869441377</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002725363760053862</v>
+      </c>
+      <c r="F26">
+        <v>0.007221828005591802</v>
+      </c>
+      <c r="G26">
+        <v>-0.06408054940626499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04337487067613304</v>
+        <v>-0.1181727543653685</v>
       </c>
       <c r="C28">
-        <v>0.2329838354248677</v>
+        <v>-0.2372575141213698</v>
       </c>
       <c r="D28">
-        <v>0.1633944897001453</v>
+        <v>-0.007339650934864469</v>
       </c>
       <c r="E28">
-        <v>0.01120646942157798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0004222969934327578</v>
+      </c>
+      <c r="F28">
+        <v>0.01908791579350584</v>
+      </c>
+      <c r="G28">
+        <v>-0.06771074842120832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008333836502110651</v>
+        <v>-0.01100884476403141</v>
       </c>
       <c r="C29">
-        <v>0.01729208308287128</v>
+        <v>0.0205958729749614</v>
       </c>
       <c r="D29">
-        <v>-0.01131139798493351</v>
+        <v>0.007743703562865933</v>
       </c>
       <c r="E29">
-        <v>0.00422954765282555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.004660199467155707</v>
+      </c>
+      <c r="F29">
+        <v>0.01512067837745312</v>
+      </c>
+      <c r="G29">
+        <v>-0.06985848240039727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02437424544529953</v>
+        <v>-0.0458058979987762</v>
       </c>
       <c r="C30">
-        <v>0.004772778687526062</v>
+        <v>0.06428320904830448</v>
       </c>
       <c r="D30">
-        <v>-0.06028965231355912</v>
+        <v>0.02829897665717918</v>
       </c>
       <c r="E30">
-        <v>-0.0488303379451594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04890810797407308</v>
+      </c>
+      <c r="F30">
+        <v>-0.04731040826422445</v>
+      </c>
+      <c r="G30">
+        <v>-0.07501773164736548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01011211083942077</v>
+        <v>-0.05329929771310957</v>
       </c>
       <c r="C31">
-        <v>0.04300038354675498</v>
+        <v>0.03451619974601619</v>
       </c>
       <c r="D31">
-        <v>-0.04184182373933285</v>
+        <v>0.003149351759015214</v>
       </c>
       <c r="E31">
-        <v>0.0107188918233299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006126921555889927</v>
+      </c>
+      <c r="F31">
+        <v>0.03966524235742076</v>
+      </c>
+      <c r="G31">
+        <v>-0.06588807951510958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005706939773008382</v>
+        <v>0.0002134645085205274</v>
       </c>
       <c r="C32">
-        <v>0.01966760662963375</v>
+        <v>0.02634121955743365</v>
       </c>
       <c r="D32">
-        <v>0.01035688562957149</v>
+        <v>-0.003992255131032995</v>
       </c>
       <c r="E32">
-        <v>0.05017349446867505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01558664812850542</v>
+      </c>
+      <c r="F32">
+        <v>-0.0419224197630597</v>
+      </c>
+      <c r="G32">
+        <v>-0.09186033401660471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01435536575563323</v>
+        <v>-0.02812838794717794</v>
       </c>
       <c r="C33">
-        <v>0.02637990337925317</v>
+        <v>0.04758056194411233</v>
       </c>
       <c r="D33">
-        <v>-0.02115126119704201</v>
+        <v>0.01505468886519547</v>
       </c>
       <c r="E33">
-        <v>-0.02934109881417429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.032591353648065</v>
+      </c>
+      <c r="F33">
+        <v>-0.01675318967385302</v>
+      </c>
+      <c r="G33">
+        <v>-0.1025997117518622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003604522581904163</v>
+        <v>-0.04030332515915441</v>
       </c>
       <c r="C34">
-        <v>0.01924796845601858</v>
+        <v>0.06192822684794959</v>
       </c>
       <c r="D34">
-        <v>-0.0487230229312939</v>
+        <v>-0.004401242166822951</v>
       </c>
       <c r="E34">
-        <v>0.009060349356281893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001369821347696867</v>
+      </c>
+      <c r="F34">
+        <v>-0.02120548206441808</v>
+      </c>
+      <c r="G34">
+        <v>-0.07201296215136303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01335006101833944</v>
+        <v>-0.01535827965009769</v>
       </c>
       <c r="C36">
-        <v>0.02142304888975329</v>
+        <v>0.00904098256900277</v>
       </c>
       <c r="D36">
-        <v>-0.0001264008576313339</v>
+        <v>0.01160669706751875</v>
       </c>
       <c r="E36">
-        <v>0.003452213099612892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008488111573545816</v>
+      </c>
+      <c r="F36">
+        <v>0.008363823198561649</v>
+      </c>
+      <c r="G36">
+        <v>-0.05799432759740464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.002883289458145216</v>
+        <v>-0.03273480603963052</v>
       </c>
       <c r="C38">
-        <v>0.03679887358014352</v>
+        <v>0.02878129135987747</v>
       </c>
       <c r="D38">
-        <v>-0.0319226574282301</v>
+        <v>-0.00776681706828701</v>
       </c>
       <c r="E38">
-        <v>0.005242688684884303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002077200910574377</v>
+      </c>
+      <c r="F38">
+        <v>0.01517193530576788</v>
+      </c>
+      <c r="G38">
+        <v>-0.06575294405821122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004974564940048175</v>
+        <v>-0.0348792151950932</v>
       </c>
       <c r="C39">
-        <v>-0.0179485305576117</v>
+        <v>0.08215359322305724</v>
       </c>
       <c r="D39">
-        <v>-0.08835820760023978</v>
+        <v>0.01209757691388753</v>
       </c>
       <c r="E39">
-        <v>-0.01304139016639693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0242484369600221</v>
+      </c>
+      <c r="F39">
+        <v>-0.02675124681937646</v>
+      </c>
+      <c r="G39">
+        <v>-0.06747928313389753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01325833816936164</v>
+        <v>-0.01870489401557001</v>
       </c>
       <c r="C40">
-        <v>0.0233292654720987</v>
+        <v>0.03255444087062948</v>
       </c>
       <c r="D40">
-        <v>-0.02582072797698836</v>
+        <v>0.01394745060767938</v>
       </c>
       <c r="E40">
-        <v>0.001103265324593339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02290043212912473</v>
+      </c>
+      <c r="F40">
+        <v>-0.01237271129784311</v>
+      </c>
+      <c r="G40">
+        <v>-0.07084976206976827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006319491619013097</v>
+        <v>-0.0175584412475763</v>
       </c>
       <c r="C41">
-        <v>0.02099902178542122</v>
+        <v>0.0008849736798866065</v>
       </c>
       <c r="D41">
-        <v>0.01130441824202262</v>
+        <v>0.003698897495020332</v>
       </c>
       <c r="E41">
-        <v>0.003523887543753183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001166072818904221</v>
+      </c>
+      <c r="F41">
+        <v>0.0126479043634338</v>
+      </c>
+      <c r="G41">
+        <v>-0.04634869765130938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09609134174662758</v>
+        <v>-0.01204274945991908</v>
       </c>
       <c r="C42">
-        <v>-0.003644998450683041</v>
+        <v>0.03756725871624435</v>
       </c>
       <c r="D42">
-        <v>-0.2722862842480369</v>
+        <v>0.09412865268247114</v>
       </c>
       <c r="E42">
-        <v>-0.4239928082265282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0307169542425531</v>
+      </c>
+      <c r="F42">
+        <v>0.03739542400201677</v>
+      </c>
+      <c r="G42">
+        <v>0.1737080335664308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.00780280297456565</v>
+        <v>-0.03302851156178847</v>
       </c>
       <c r="C43">
-        <v>0.02588828658014667</v>
+        <v>0.01372801260307722</v>
       </c>
       <c r="D43">
-        <v>0.01386940820147507</v>
+        <v>0.005226803167405184</v>
       </c>
       <c r="E43">
-        <v>-0.002750336959405197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01197770295075144</v>
+      </c>
+      <c r="F43">
+        <v>0.005027371296133147</v>
+      </c>
+      <c r="G43">
+        <v>-0.06971386732303271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003474854358745037</v>
+        <v>-0.0160975218457053</v>
       </c>
       <c r="C44">
-        <v>0.007734469334163048</v>
+        <v>0.04920105408750153</v>
       </c>
       <c r="D44">
-        <v>-0.02515257508724692</v>
+        <v>0.00619344125086725</v>
       </c>
       <c r="E44">
-        <v>0.006047496431137925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01772807977728872</v>
+      </c>
+      <c r="F44">
+        <v>0.004660475732364908</v>
+      </c>
+      <c r="G44">
+        <v>-0.08397166609306729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01125339697064313</v>
+        <v>-0.008496000304014206</v>
       </c>
       <c r="C46">
-        <v>0.01532323917186344</v>
+        <v>0.01634287231616027</v>
       </c>
       <c r="D46">
-        <v>-0.009866239219861978</v>
+        <v>0.0115744141343921</v>
       </c>
       <c r="E46">
-        <v>-0.001206381563847296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003787662436378006</v>
+      </c>
+      <c r="F46">
+        <v>0.01772396669441889</v>
+      </c>
+      <c r="G46">
+        <v>-0.06906899870665992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005071686644230519</v>
+        <v>-0.07891683915705716</v>
       </c>
       <c r="C47">
-        <v>0.05510773384465458</v>
+        <v>0.06255222928546229</v>
       </c>
       <c r="D47">
-        <v>-0.06202835551175813</v>
+        <v>-0.00541970919613293</v>
       </c>
       <c r="E47">
-        <v>0.005698281879233004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009715100812705027</v>
+      </c>
+      <c r="F47">
+        <v>0.05514636196947256</v>
+      </c>
+      <c r="G47">
+        <v>-0.06418781142080175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004359223967560437</v>
+        <v>-0.020968864306345</v>
       </c>
       <c r="C48">
-        <v>0.02681495016071348</v>
+        <v>0.01077835705678948</v>
       </c>
       <c r="D48">
-        <v>-0.01076628411225269</v>
+        <v>0.0009231555317231109</v>
       </c>
       <c r="E48">
-        <v>0.002569073833140347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002905677217122119</v>
+      </c>
+      <c r="F48">
+        <v>0.02160883559839225</v>
+      </c>
+      <c r="G48">
+        <v>-0.06541431602951669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006912878168059131</v>
+        <v>-0.07782408234979735</v>
       </c>
       <c r="C50">
-        <v>0.05597080372598226</v>
+        <v>0.06617309425420308</v>
       </c>
       <c r="D50">
-        <v>-0.06238697993527235</v>
+        <v>-0.003301310015791311</v>
       </c>
       <c r="E50">
-        <v>0.03229187026131343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01206962960171441</v>
+      </c>
+      <c r="F50">
+        <v>0.05930845950463129</v>
+      </c>
+      <c r="G50">
+        <v>-0.081026835449424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007599845535223517</v>
+        <v>-0.01519927710157457</v>
       </c>
       <c r="C51">
-        <v>0.01642257486954067</v>
+        <v>0.03110033715235123</v>
       </c>
       <c r="D51">
-        <v>0.003693684725551639</v>
+        <v>0.009691182585328995</v>
       </c>
       <c r="E51">
-        <v>0.004182811319281467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01444849575254829</v>
+      </c>
+      <c r="F51">
+        <v>-0.02366450797779802</v>
+      </c>
+      <c r="G51">
+        <v>-0.09951241093718202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.008502099999162406</v>
+        <v>-0.08492594009615977</v>
       </c>
       <c r="C53">
-        <v>0.06820396388645479</v>
+        <v>0.08002679008003952</v>
       </c>
       <c r="D53">
-        <v>-0.1188770923956363</v>
+        <v>-0.004772693144131039</v>
       </c>
       <c r="E53">
-        <v>0.01252709934072564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03187229581627814</v>
+      </c>
+      <c r="F53">
+        <v>0.06148689455964653</v>
+      </c>
+      <c r="G53">
+        <v>-0.05175706687417506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001877261510680257</v>
+        <v>-0.03191125217021254</v>
       </c>
       <c r="C54">
-        <v>0.03638807206546529</v>
+        <v>0.01463195734099562</v>
       </c>
       <c r="D54">
-        <v>-0.0011416040052885</v>
+        <v>-0.002405123047846706</v>
       </c>
       <c r="E54">
-        <v>0.003444477171610043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.00408295777828845</v>
+      </c>
+      <c r="F54">
+        <v>0.007201824023850644</v>
+      </c>
+      <c r="G54">
+        <v>-0.07186926585150065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004576246208050428</v>
+        <v>-0.07397026260507342</v>
       </c>
       <c r="C55">
-        <v>0.0465224702529581</v>
+        <v>0.06691489515812449</v>
       </c>
       <c r="D55">
-        <v>-0.1000405358556118</v>
+        <v>-0.005696881887819104</v>
       </c>
       <c r="E55">
-        <v>-0.0007274218953612612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02637159853108318</v>
+      </c>
+      <c r="F55">
+        <v>0.05963624696877556</v>
+      </c>
+      <c r="G55">
+        <v>-0.03383065802876352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.007894063652664944</v>
+        <v>-0.1426448777505853</v>
       </c>
       <c r="C56">
-        <v>0.09507529790965698</v>
+        <v>0.1057343293540589</v>
       </c>
       <c r="D56">
-        <v>-0.1543396274346645</v>
+        <v>-0.01305321125597696</v>
       </c>
       <c r="E56">
-        <v>0.0007830697542921457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03590771265154985</v>
+      </c>
+      <c r="F56">
+        <v>0.07974098426469241</v>
+      </c>
+      <c r="G56">
+        <v>-0.01003168954614506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02448087241346777</v>
+        <v>-0.007867758312190673</v>
       </c>
       <c r="C57">
-        <v>0.01637995239060215</v>
+        <v>0.009002598885420095</v>
       </c>
       <c r="D57">
-        <v>-0.03733915591976509</v>
+        <v>0.02349555779107918</v>
       </c>
       <c r="E57">
-        <v>-0.003427630430609431</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02430994230072822</v>
+      </c>
+      <c r="F57">
+        <v>-0.009346875118690819</v>
+      </c>
+      <c r="G57">
+        <v>-0.0274044867780167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01796083813305791</v>
+        <v>-0.07226103034197258</v>
       </c>
       <c r="C58">
-        <v>0.08995169816967691</v>
+        <v>0.03643287261044484</v>
       </c>
       <c r="D58">
-        <v>-0.1092149839952383</v>
+        <v>0.02368031394405509</v>
       </c>
       <c r="E58">
-        <v>-0.4007557891023134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9369420644451895</v>
+      </c>
+      <c r="F58">
+        <v>0.2424491151733938</v>
+      </c>
+      <c r="G58">
+        <v>0.08460636141228065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04086021107235197</v>
+        <v>-0.1557659267547159</v>
       </c>
       <c r="C59">
-        <v>0.2509497659187633</v>
+        <v>-0.2099344537563554</v>
       </c>
       <c r="D59">
-        <v>0.1607243756853151</v>
+        <v>-0.01323077302818015</v>
       </c>
       <c r="E59">
-        <v>0.005870916269450053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01092029631989584</v>
+      </c>
+      <c r="F59">
+        <v>-0.003243160180664501</v>
+      </c>
+      <c r="G59">
+        <v>-0.03626535722650213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04247148147566892</v>
+        <v>-0.2881047063829816</v>
       </c>
       <c r="C60">
-        <v>0.163867731024551</v>
+        <v>0.0948937754176913</v>
       </c>
       <c r="D60">
-        <v>-0.07170274012427691</v>
+        <v>0.01320837797754216</v>
       </c>
       <c r="E60">
-        <v>-0.005385177246566998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001842846445618123</v>
+      </c>
+      <c r="F60">
+        <v>-0.3529271009013915</v>
+      </c>
+      <c r="G60">
+        <v>0.1296387427247964</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003360805010024226</v>
+        <v>-0.0378648001824769</v>
       </c>
       <c r="C61">
-        <v>0.007762508572135182</v>
+        <v>0.064439544083011</v>
       </c>
       <c r="D61">
-        <v>-0.06208603188092403</v>
+        <v>0.00517036929692823</v>
       </c>
       <c r="E61">
-        <v>0.0006961935685518698</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01141770569499882</v>
+      </c>
+      <c r="F61">
+        <v>-0.01489721700905412</v>
+      </c>
+      <c r="G61">
+        <v>-0.06059219986227928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007817166317051639</v>
+        <v>-0.01446395159573807</v>
       </c>
       <c r="C63">
-        <v>0.008057180498202643</v>
+        <v>0.02872577250284271</v>
       </c>
       <c r="D63">
-        <v>-0.009219558245962928</v>
+        <v>0.008014216309690089</v>
       </c>
       <c r="E63">
-        <v>0.009291408083633721</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002911781070199429</v>
+      </c>
+      <c r="F63">
+        <v>0.01763106723297299</v>
+      </c>
+      <c r="G63">
+        <v>-0.06861523506868557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009261779706942497</v>
+        <v>-0.04949667457611701</v>
       </c>
       <c r="C64">
-        <v>0.03072204316658049</v>
+        <v>0.04435138743034577</v>
       </c>
       <c r="D64">
-        <v>-0.05850460220836418</v>
+        <v>0.005864297421788792</v>
       </c>
       <c r="E64">
-        <v>-0.01537331809068748</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.003955912933353152</v>
+      </c>
+      <c r="F64">
+        <v>-0.003029292957193246</v>
+      </c>
+      <c r="G64">
+        <v>-0.05165374095642303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01756660655245854</v>
+        <v>-0.08009502960724185</v>
       </c>
       <c r="C65">
-        <v>0.01036954668318555</v>
+        <v>0.05792303033085146</v>
       </c>
       <c r="D65">
-        <v>-0.1065380975301405</v>
+        <v>0.0158325604875845</v>
       </c>
       <c r="E65">
-        <v>0.01417210276252543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02458421882645769</v>
+      </c>
+      <c r="F65">
+        <v>-0.02955542562797786</v>
+      </c>
+      <c r="G65">
+        <v>-0.0225696394022717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004822988576985305</v>
+        <v>-0.05214737433297439</v>
       </c>
       <c r="C66">
-        <v>-0.01301053038310636</v>
+        <v>0.1116111396513656</v>
       </c>
       <c r="D66">
-        <v>-0.1136924696801768</v>
+        <v>0.01196198197929618</v>
       </c>
       <c r="E66">
-        <v>-0.009740414053553156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02936189957403031</v>
+      </c>
+      <c r="F66">
+        <v>-0.03494688054587717</v>
+      </c>
+      <c r="G66">
+        <v>-0.07322458316367095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003876715688314214</v>
+        <v>-0.05488171129573271</v>
       </c>
       <c r="C67">
-        <v>0.05825145063210117</v>
+        <v>0.0319976021653506</v>
       </c>
       <c r="D67">
-        <v>-0.03719151008812202</v>
+        <v>-0.005812170546815676</v>
       </c>
       <c r="E67">
-        <v>0.006764300678218902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003730154593713249</v>
+      </c>
+      <c r="F67">
+        <v>0.01527932415537034</v>
+      </c>
+      <c r="G67">
+        <v>-0.06178675839304516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05743544957099971</v>
+        <v>-0.1430094776446418</v>
       </c>
       <c r="C68">
-        <v>0.228219447396348</v>
+        <v>-0.2721197871882785</v>
       </c>
       <c r="D68">
-        <v>0.1579683037180263</v>
+        <v>0.004317339335734572</v>
       </c>
       <c r="E68">
-        <v>-0.01415131573002324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.007083709793970966</v>
+      </c>
+      <c r="F68">
+        <v>0.03146485276597171</v>
+      </c>
+      <c r="G68">
+        <v>-0.02158689910835654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0003731658135802421</v>
+        <v>-0.08224335241568745</v>
       </c>
       <c r="C69">
-        <v>0.04340156023591511</v>
+        <v>0.06630330969268838</v>
       </c>
       <c r="D69">
-        <v>-0.06277752413324217</v>
+        <v>-0.009505743219492378</v>
       </c>
       <c r="E69">
-        <v>0.00966576383291495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0269377592675718</v>
+      </c>
+      <c r="F69">
+        <v>0.03947221533533236</v>
+      </c>
+      <c r="G69">
+        <v>-0.06694710338725894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04331682246465893</v>
+        <v>-0.1321463866625573</v>
       </c>
       <c r="C71">
-        <v>0.202888073266061</v>
+        <v>-0.2342874567137661</v>
       </c>
       <c r="D71">
-        <v>0.1399025130481469</v>
+        <v>-0.004360693693065234</v>
       </c>
       <c r="E71">
-        <v>-0.007014705613347525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02602656804716835</v>
+      </c>
+      <c r="F71">
+        <v>0.01351116950357665</v>
+      </c>
+      <c r="G71">
+        <v>-0.04621486609825724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0006128447363552537</v>
+        <v>-0.0880249424514235</v>
       </c>
       <c r="C72">
-        <v>0.0477992944306961</v>
+        <v>0.0706080080219216</v>
       </c>
       <c r="D72">
-        <v>-0.1277933777097653</v>
+        <v>-0.00826210329938748</v>
       </c>
       <c r="E72">
-        <v>0.006156751287002304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003270405662595947</v>
+      </c>
+      <c r="F72">
+        <v>-0.04264348057966289</v>
+      </c>
+      <c r="G72">
+        <v>-0.05132879629996592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05629054056973563</v>
+        <v>-0.3826983241300845</v>
       </c>
       <c r="C73">
-        <v>0.1894267307865153</v>
+        <v>0.1105365314753542</v>
       </c>
       <c r="D73">
-        <v>-0.1490286290632644</v>
+        <v>0.02329466628528599</v>
       </c>
       <c r="E73">
-        <v>-0.04485022877110128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07330840651338701</v>
+      </c>
+      <c r="F73">
+        <v>-0.5695300239799347</v>
+      </c>
+      <c r="G73">
+        <v>0.2015061623190898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005076252515402901</v>
+        <v>-0.1115978963939655</v>
       </c>
       <c r="C74">
-        <v>0.08324946792405587</v>
+        <v>0.1104336252260488</v>
       </c>
       <c r="D74">
-        <v>-0.1611993199310055</v>
+        <v>-0.01017715709450411</v>
       </c>
       <c r="E74">
-        <v>-0.010223557571156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0153619226355951</v>
+      </c>
+      <c r="F74">
+        <v>0.07445885321022462</v>
+      </c>
+      <c r="G74">
+        <v>-0.05584201072781504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01540945830783722</v>
+        <v>-0.2528087650106365</v>
       </c>
       <c r="C75">
-        <v>0.1914476553033501</v>
+        <v>0.1468587822925343</v>
       </c>
       <c r="D75">
-        <v>-0.2871935818277693</v>
+        <v>-0.0307188133889067</v>
       </c>
       <c r="E75">
-        <v>-0.01288333029458014</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05981603812046575</v>
+      </c>
+      <c r="F75">
+        <v>0.1814421021623986</v>
+      </c>
+      <c r="G75">
+        <v>0.05817367624975546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.002641797383224581</v>
+        <v>-0.1268423482359964</v>
       </c>
       <c r="C76">
-        <v>0.1228927429713457</v>
+        <v>0.1124236519691586</v>
       </c>
       <c r="D76">
-        <v>-0.2273518056056728</v>
+        <v>-0.02074162846118004</v>
       </c>
       <c r="E76">
-        <v>0.03162366484820248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04730548223707411</v>
+      </c>
+      <c r="F76">
+        <v>0.1177464495775474</v>
+      </c>
+      <c r="G76">
+        <v>-0.02796378933875806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01312486975661938</v>
+        <v>-0.0665836050697832</v>
       </c>
       <c r="C77">
-        <v>0.01983350057659391</v>
+        <v>0.0567806769077755</v>
       </c>
       <c r="D77">
-        <v>-0.04394074831409439</v>
+        <v>0.01246301808135671</v>
       </c>
       <c r="E77">
-        <v>-0.01811235460876438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05157062981206381</v>
+      </c>
+      <c r="F77">
+        <v>-0.01383628737687955</v>
+      </c>
+      <c r="G77">
+        <v>-0.06526407938896149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005167156119508352</v>
+        <v>-0.0454168485690121</v>
       </c>
       <c r="C78">
-        <v>0.01590240781273628</v>
+        <v>0.04943963335157936</v>
       </c>
       <c r="D78">
-        <v>-0.06010150691244399</v>
+        <v>0.005282119517036156</v>
       </c>
       <c r="E78">
-        <v>-0.007565315062236434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02168915068234376</v>
+      </c>
+      <c r="F78">
+        <v>-0.03630002221808214</v>
+      </c>
+      <c r="G78">
+        <v>-0.06749901658430746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01683301167160834</v>
+        <v>-0.05798933308785715</v>
       </c>
       <c r="C80">
-        <v>0.09268736932315751</v>
+        <v>0.06556884482879817</v>
       </c>
       <c r="D80">
-        <v>-0.215703491598197</v>
+        <v>0.009941601926314899</v>
       </c>
       <c r="E80">
-        <v>0.7853855921787711</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02842734408083853</v>
+      </c>
+      <c r="F80">
+        <v>-0.009103480196212243</v>
+      </c>
+      <c r="G80">
+        <v>-0.6833500640790262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.00969512612168616</v>
+        <v>-0.14368107159333</v>
       </c>
       <c r="C81">
-        <v>0.1140159424616156</v>
+        <v>0.08925359655599245</v>
       </c>
       <c r="D81">
-        <v>-0.1615901513968708</v>
+        <v>-0.01579595972723816</v>
       </c>
       <c r="E81">
-        <v>0.01264615371537476</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03645283937943727</v>
+      </c>
+      <c r="F81">
+        <v>0.1284320480942628</v>
+      </c>
+      <c r="G81">
+        <v>-0.0173450935665271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.121613586273205</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06114609536160152</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.007037635511956883</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08387690705477424</v>
+      </c>
+      <c r="F82">
+        <v>0.02305155475765167</v>
+      </c>
+      <c r="G82">
+        <v>-0.03114226960982861</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007438931418797508</v>
+        <v>-0.03407297342874501</v>
       </c>
       <c r="C83">
-        <v>0.02220528281905438</v>
+        <v>0.02377715539800744</v>
       </c>
       <c r="D83">
-        <v>-0.01824054943849972</v>
+        <v>0.00579973377157085</v>
       </c>
       <c r="E83">
-        <v>-0.001390385421925097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.03040211896896323</v>
+      </c>
+      <c r="F83">
+        <v>-0.03560597721727271</v>
+      </c>
+      <c r="G83">
+        <v>-0.04880973832628716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0206313446046184</v>
+        <v>-0.2174024926382981</v>
       </c>
       <c r="C85">
-        <v>0.1482218706950972</v>
+        <v>0.1427331935459997</v>
       </c>
       <c r="D85">
-        <v>-0.2609898005921526</v>
+        <v>-0.01793571459296188</v>
       </c>
       <c r="E85">
-        <v>-0.00719583730976955</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09853297665833773</v>
+      </c>
+      <c r="F85">
+        <v>0.1428435448504119</v>
+      </c>
+      <c r="G85">
+        <v>0.1023677414115701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01016096619564226</v>
+        <v>-0.01601060386884032</v>
       </c>
       <c r="C86">
-        <v>0.03498869018584078</v>
+        <v>0.02373718491182376</v>
       </c>
       <c r="D86">
-        <v>-0.01349571596346305</v>
+        <v>0.01141045233323594</v>
       </c>
       <c r="E86">
-        <v>-0.04173733990235738</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04451994282232789</v>
+      </c>
+      <c r="F86">
+        <v>-0.04160539758908598</v>
+      </c>
+      <c r="G86">
+        <v>-0.1340627055211237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008038343464521334</v>
+        <v>-0.02284304832164216</v>
       </c>
       <c r="C87">
-        <v>0.01122975706168741</v>
+        <v>0.02715555822744946</v>
       </c>
       <c r="D87">
-        <v>-0.04154378884521546</v>
+        <v>0.0115890564385452</v>
       </c>
       <c r="E87">
-        <v>-0.01268364108798634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08540992560756891</v>
+      </c>
+      <c r="F87">
+        <v>-0.02132121226319891</v>
+      </c>
+      <c r="G87">
+        <v>-0.09284098823626466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02854552029953043</v>
+        <v>-0.09046086818330784</v>
       </c>
       <c r="C88">
-        <v>0.03566560562143489</v>
+        <v>0.06607428555879531</v>
       </c>
       <c r="D88">
-        <v>-0.03338589405837106</v>
+        <v>0.02300595424416252</v>
       </c>
       <c r="E88">
-        <v>0.003387158849864736</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.009911061465224111</v>
+      </c>
+      <c r="F88">
+        <v>0.02332907741290979</v>
+      </c>
+      <c r="G88">
+        <v>-0.06526787662505062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08068292395302509</v>
+        <v>-0.2175516643309569</v>
       </c>
       <c r="C89">
-        <v>0.3683463964093766</v>
+        <v>-0.3729718077804736</v>
       </c>
       <c r="D89">
-        <v>0.2458685810831197</v>
+        <v>-0.002608234910253778</v>
       </c>
       <c r="E89">
-        <v>0.01954522888821044</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01956776186525709</v>
+      </c>
+      <c r="F89">
+        <v>0.02278422639641844</v>
+      </c>
+      <c r="G89">
+        <v>-0.0472679709080676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06159850711763291</v>
+        <v>-0.19787132263338</v>
       </c>
       <c r="C90">
-        <v>0.2849676847106931</v>
+        <v>-0.3276870084063431</v>
       </c>
       <c r="D90">
-        <v>0.2136704323926573</v>
+        <v>-0.007407958826309393</v>
       </c>
       <c r="E90">
-        <v>-0.01211820254056628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01630588143801392</v>
+      </c>
+      <c r="F90">
+        <v>0.05047489759591135</v>
+      </c>
+      <c r="G90">
+        <v>-0.01444677668585539</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01074665145666409</v>
+        <v>-0.1944110370170252</v>
       </c>
       <c r="C91">
-        <v>0.1637282229626509</v>
+        <v>0.1389089313615285</v>
       </c>
       <c r="D91">
-        <v>-0.2326631098936046</v>
+        <v>-0.02342144997824497</v>
       </c>
       <c r="E91">
-        <v>0.01585783804376695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07103636926017416</v>
+      </c>
+      <c r="F91">
+        <v>0.1535200046911754</v>
+      </c>
+      <c r="G91">
+        <v>-0.00786439750699507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02913985312510397</v>
+        <v>-0.1963161601643618</v>
       </c>
       <c r="C92">
-        <v>0.3001191369172516</v>
+        <v>-0.2647162115281108</v>
       </c>
       <c r="D92">
-        <v>0.1113727572985267</v>
+        <v>-0.04208286039123954</v>
       </c>
       <c r="E92">
-        <v>-0.01127169418601933</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01291384976450977</v>
+      </c>
+      <c r="F92">
+        <v>0.06589941606937502</v>
+      </c>
+      <c r="G92">
+        <v>-0.1163269776957319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06003507165902108</v>
+        <v>-0.2236516296274195</v>
       </c>
       <c r="C93">
-        <v>0.3115112458359006</v>
+        <v>-0.3276472759601146</v>
       </c>
       <c r="D93">
-        <v>0.2018695021719241</v>
+        <v>-0.01376166967977532</v>
       </c>
       <c r="E93">
-        <v>-0.03663373076098702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002757507552596347</v>
+      </c>
+      <c r="F93">
+        <v>0.03479194899700314</v>
+      </c>
+      <c r="G93">
+        <v>-0.01637756589891393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03554350523112897</v>
+        <v>-0.3150355495451544</v>
       </c>
       <c r="C94">
-        <v>0.1943917338292309</v>
+        <v>0.1699663263124939</v>
       </c>
       <c r="D94">
-        <v>-0.2481086342953198</v>
+        <v>-0.01715953604283937</v>
       </c>
       <c r="E94">
-        <v>-0.01261647196933685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1634133209620223</v>
+      </c>
+      <c r="F94">
+        <v>0.4739072219706371</v>
+      </c>
+      <c r="G94">
+        <v>0.2755890964980572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004006386252008485</v>
+        <v>-0.09968679173660158</v>
       </c>
       <c r="C95">
-        <v>0.04041733981121792</v>
+        <v>0.0840172954294265</v>
       </c>
       <c r="D95">
-        <v>-0.08384087788037736</v>
+        <v>-0.008948593353712078</v>
       </c>
       <c r="E95">
-        <v>-0.1278753356795638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06274009907707324</v>
+      </c>
+      <c r="F95">
+        <v>-0.1888772180530806</v>
+      </c>
+      <c r="G95">
+        <v>0.07355528405514876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0167479330088833</v>
+        <v>-0.2008517419191717</v>
       </c>
       <c r="C98">
-        <v>0.1703042054980621</v>
+        <v>0.04346829311977267</v>
       </c>
       <c r="D98">
-        <v>-0.1098114366012983</v>
+        <v>-0.01241176761710114</v>
       </c>
       <c r="E98">
-        <v>-0.04931374096484126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06673282732704865</v>
+      </c>
+      <c r="F98">
+        <v>-0.2416461468024978</v>
+      </c>
+      <c r="G98">
+        <v>0.02543977762036511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008114683954292858</v>
+        <v>-0.01082650521445289</v>
       </c>
       <c r="C101">
-        <v>0.01697525452487023</v>
+        <v>0.02055485486015171</v>
       </c>
       <c r="D101">
-        <v>-0.01103769289153087</v>
+        <v>0.007565939244387961</v>
       </c>
       <c r="E101">
-        <v>0.004654977932639862</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.004929388933099218</v>
+      </c>
+      <c r="F101">
+        <v>0.01613243125636463</v>
+      </c>
+      <c r="G101">
+        <v>-0.06945411825579823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01992182525642871</v>
+        <v>-0.1205448082257127</v>
       </c>
       <c r="C102">
-        <v>0.08640710430440027</v>
+        <v>0.08350863636033416</v>
       </c>
       <c r="D102">
-        <v>-0.1298303774144079</v>
+        <v>0.001023633953349989</v>
       </c>
       <c r="E102">
-        <v>-0.000298783457564633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03335433435308466</v>
+      </c>
+      <c r="F102">
+        <v>0.04334861845663573</v>
+      </c>
+      <c r="G102">
+        <v>0.003803242868735609</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002205968494131193</v>
+        <v>-0.003672954256831651</v>
       </c>
       <c r="C103">
-        <v>0.01266350714987246</v>
+        <v>0.003626819777565085</v>
       </c>
       <c r="D103">
-        <v>-0.02317389373187969</v>
+        <v>0.0001177542141379951</v>
       </c>
       <c r="E103">
-        <v>0.0144400052039817</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0014511694218004</v>
+      </c>
+      <c r="F103">
+        <v>0.005779275667026474</v>
+      </c>
+      <c r="G103">
+        <v>-0.01280765603821526</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.974715158411129</v>
+        <v>-0.02270554947449761</v>
       </c>
       <c r="C104">
-        <v>-0.1775719653457811</v>
+        <v>-0.03425160308260474</v>
       </c>
       <c r="D104">
-        <v>0.01239591808671005</v>
+        <v>0.9872840866703615</v>
       </c>
       <c r="E104">
-        <v>0.0427971971657335</v>
+        <v>-0.0492581315862408</v>
+      </c>
+      <c r="F104">
+        <v>0.04122240313059798</v>
+      </c>
+      <c r="G104">
+        <v>0.01863367621906984</v>
       </c>
     </row>
   </sheetData>
